--- a/Fase3_ValueBettingAnalysis/SoftmaxRegressionOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/SoftmaxRegressionOutliers/PercentagePointDifference/40pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE338"/>
+  <dimension ref="A1:AH338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>-0.04344123431101932</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-43.6560895366764</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>544.2194977802602</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-97.74751934593151</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>-0.1971778385521449</v>
       </c>
+      <c r="AF3" t="n">
+        <v>91.51415754988186</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-72.99232934716323</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-70.92504162084003</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>0.4328851890661507</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-58.06984890130919</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-89.33083392575323</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>108.7269330951504</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.5161418885274232</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-82.20798342645594</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-96.74883787553901</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>122.6585145692054</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>0.4400897366714774</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-65.25878104691839</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-98.41499430858855</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>94.10662904450953</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>-0.1605257531447613</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-43.17844529734561</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>171.5819711694592</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-94.06523632223639</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>-0.07960582994358562</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-43.46701338963603</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>247.7984102011066</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-98.13079674164939</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>0.468589207681855</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-93.15064590282111</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-99.07688345700861</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>91.24547528850677</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>-0.2085086405387668</v>
       </c>
+      <c r="AF10" t="n">
+        <v>89.68689694172338</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-83.58172935878055</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-85.80168812597493</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.1624369356814657</v>
       </c>
+      <c r="AF11" t="n">
+        <v>91.56196060190487</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-97.2427545451458</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-70.27886404295862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>0.4002068535321415</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-40.60589372855267</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-92.24400366056054</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>104.3062315105663</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>0.4097010982527243</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-44.01878962479102</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-75.62742147109788</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>149.0376993246524</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>-0.1929557166632411</v>
       </c>
+      <c r="AF14" t="n">
+        <v>90.30547440873167</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-94.40403088969342</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-85.29625219134829</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>-0.2107850577156573</v>
       </c>
+      <c r="AF15" t="n">
+        <v>86.9272161832439</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-81.10638516888031</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-88.79771727968229</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.1753436094716577</v>
       </c>
+      <c r="AF16" t="n">
+        <v>-65.0477147255946</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>183.3056166719183</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-87.75433766301329</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>-0.2099583927556262</v>
       </c>
+      <c r="AF17" t="n">
+        <v>105.2639233257167</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-92.14872241766892</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-79.32626628195216</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>-0.1943381035032679</v>
       </c>
+      <c r="AF18" t="n">
+        <v>289.2141713494787</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-70.28127928756884</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-41.17712745889074</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>-0.1913153552622971</v>
       </c>
+      <c r="AF19" t="n">
+        <v>108.9032043767914</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-96.52355441808447</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-68.34089069132965</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>0.4449735010573563</v>
       </c>
+      <c r="AF20" t="n">
+        <v>-59.30940874074433</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-90.37035087578126</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>111.373186802416</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>-0.4617696861246636</v>
       </c>
+      <c r="AF21" t="n">
+        <v>390.8633157505542</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-88.3360220774457</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-77.94689112806604</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>-0.1911172387748355</v>
       </c>
+      <c r="AF22" t="n">
+        <v>94.83493390769725</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-86.05390057743647</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-73.36938079946883</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>-0.1387906192313897</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-49.54023103171661</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>163.2996444398409</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-83.07917256139162</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>-0.1604020087140938</v>
       </c>
+      <c r="AF24" t="n">
+        <v>105.3372806821722</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-93.05997423247473</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-51.3699949629095</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>-0.2287289416829485</v>
       </c>
+      <c r="AF25" t="n">
+        <v>127.1804493889807</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-82.46243746916701</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-67.30416896556474</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>0.4638723318116494</v>
       </c>
+      <c r="AF26" t="n">
+        <v>-85.76831826981663</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-97.67541865299812</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>93.41421724998318</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>-0.1879958490154909</v>
       </c>
+      <c r="AF27" t="n">
+        <v>109.8532858843608</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-95.34846779223902</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-63.99882772846725</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>-0.1713469816327619</v>
       </c>
+      <c r="AF28" t="n">
+        <v>105.1342044585905</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-97.09988127841046</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-61.55694354236773</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>0.5236349936061777</v>
       </c>
+      <c r="AF29" t="n">
+        <v>-80.07103867294047</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-98.85163488772966</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>127.2723942792793</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>-0.2498272293577914</v>
       </c>
+      <c r="AF30" t="n">
+        <v>119.1754833780668</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-77.61186073931208</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-78.78365038781556</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>0.4239412733329839</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-68.7269749293886</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-98.82411647357469</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>83.79804688499199</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>-0.2586802706173294</v>
       </c>
+      <c r="AF32" t="n">
+        <v>115.1123268485172</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-81.98120978893942</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-92.57699581048355</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>-0.1600791776310705</v>
       </c>
+      <c r="AF33" t="n">
+        <v>75.55908393806618</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-91.27387532982453</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-85.19945367436192</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>-0.2671449641407632</v>
       </c>
+      <c r="AF34" t="n">
+        <v>137.6616713094863</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-98.89600748855308</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-84.47470746870165</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>-0.2413101443948223</v>
       </c>
+      <c r="AF35" t="n">
+        <v>97.24379831314252</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-67.63026144248686</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-91.9421354963638</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>0.4741750417464251</v>
       </c>
+      <c r="AF36" t="n">
+        <v>-83.38638037929917</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-99.75064246570398</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>97.36190501677343</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>-0.1797802893912315</v>
       </c>
+      <c r="AF37" t="n">
+        <v>78.43465587918924</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-96.19970455001634</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-94.37683486294183</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>-0.1598012669567427</v>
       </c>
+      <c r="AF38" t="n">
+        <v>77.71161743175537</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-95.48197494487857</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-70.18177318900071</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>0.413690393568913</v>
       </c>
+      <c r="AF39" t="n">
+        <v>-72.91165745360793</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-94.79183846652488</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>81.81473874715215</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>-0.1972783143171781</v>
       </c>
+      <c r="AF40" t="n">
+        <v>128.7710238429551</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-93.50947074946828</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-57.00746248841894</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>-0.2755202311911522</v>
       </c>
+      <c r="AF41" t="n">
+        <v>162.6135761629111</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-97.28042008509283</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-73.28742320592833</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>-0.07884468667125534</v>
       </c>
+      <c r="AF42" t="n">
+        <v>-44.63473681614198</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>256.5606566806924</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-95.40090420829155</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4915,6 +5299,15 @@
       <c r="AE43" t="n">
         <v>0.5239160017261293</v>
       </c>
+      <c r="AF43" t="n">
+        <v>-72.05571951917705</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-87.63248747659213</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>155.6705522945287</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5018,6 +5411,15 @@
       <c r="AE44" t="n">
         <v>-0.1385308711259258</v>
       </c>
+      <c r="AF44" t="n">
+        <v>-41.53540354224275</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>183.0444667409104</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-93.30293054217734</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5121,6 +5523,15 @@
       <c r="AE45" t="n">
         <v>-0.2413395505890216</v>
       </c>
+      <c r="AF45" t="n">
+        <v>109.3228028807898</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-90.78678863326607</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-95.68906775504054</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5224,6 +5635,15 @@
       <c r="AE46" t="n">
         <v>-0.1402227414029072</v>
       </c>
+      <c r="AF46" t="n">
+        <v>132.7767473567917</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-97.60053233807534</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-34.53356002807673</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5327,6 +5747,15 @@
       <c r="AE47" t="n">
         <v>0.4211345528941073</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-38.67110901106304</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-98.88662294257114</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>117.2184059146198</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5430,6 +5859,15 @@
       <c r="AE48" t="n">
         <v>0.4163499870001097</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-60.59215337821481</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-84.9117205400583</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>98.14042343704071</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5533,6 +5971,15 @@
       <c r="AE49" t="n">
         <v>-0.2568549957563248</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-37.2075534127902</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>145.263462443179</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-95.0808804485264</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5636,6 +6083,15 @@
       <c r="AE50" t="n">
         <v>-0.1548847440494452</v>
       </c>
+      <c r="AF50" t="n">
+        <v>82.20094097878953</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-94.57373510813274</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-72.67114439939908</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5739,6 +6195,15 @@
       <c r="AE51" t="n">
         <v>-0.2033648572296428</v>
       </c>
+      <c r="AF51" t="n">
+        <v>92.59349197156769</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-88.56938174371008</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-90.11979291938871</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5842,6 +6307,15 @@
       <c r="AE52" t="n">
         <v>-0.170043877494583</v>
       </c>
+      <c r="AF52" t="n">
+        <v>89.38368584341659</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-83.20208675202393</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-64.90974690339681</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5945,6 +6419,15 @@
       <c r="AE53" t="n">
         <v>0.4255819737233562</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-92.09608569142587</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-99.83479111973725</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>76.00235870614085</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6048,6 +6531,15 @@
       <c r="AE54" t="n">
         <v>-0.06511999799651588</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-53.60334630910306</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>368.5875706974053</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-99.80346388578863</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6151,6 +6643,15 @@
       <c r="AE55" t="n">
         <v>0.4555888101682477</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-84.63425252072784</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-90.77139409345961</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>94.51787360235336</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6254,6 +6755,15 @@
       <c r="AE56" t="n">
         <v>-0.2045527671486846</v>
       </c>
+      <c r="AF56" t="n">
+        <v>88.86675747957617</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-78.48358356848772</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-83.38921535905769</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6357,6 +6867,15 @@
       <c r="AE57" t="n">
         <v>0.448531061280469</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-86.95386744718591</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-99.82214071571531</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>85.54618111472904</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6460,6 +6979,15 @@
       <c r="AE58" t="n">
         <v>-0.2109000619974948</v>
       </c>
+      <c r="AF58" t="n">
+        <v>256.1067948278788</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-46.30089130982047</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-51.77581309948348</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6563,6 +7091,15 @@
       <c r="AE59" t="n">
         <v>-0.1718224282803863</v>
       </c>
+      <c r="AF59" t="n">
+        <v>74.78090817595002</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-91.25799043748658</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-92.65627914809048</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6666,6 +7203,15 @@
       <c r="AE60" t="n">
         <v>-0.4010604629932312</v>
       </c>
+      <c r="AF60" t="n">
+        <v>300.156529071549</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-29.22026549223998</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-96.7891646460116</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6769,6 +7315,15 @@
       <c r="AE61" t="n">
         <v>-0.2437442629001972</v>
       </c>
+      <c r="AF61" t="n">
+        <v>117.5071418632039</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-85.10408181777932</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>-79.70513721251061</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6872,6 +7427,15 @@
       <c r="AE62" t="n">
         <v>-0.09165696135512694</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-48.17431562393787</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>225.7390942156379</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-87.89348734888448</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6975,6 +7539,15 @@
       <c r="AE63" t="n">
         <v>-0.2217546853471299</v>
       </c>
+      <c r="AF63" t="n">
+        <v>96.09154508868816</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-76.35303687839917</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-83.53251435899097</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7078,6 +7651,15 @@
       <c r="AE64" t="n">
         <v>-0.1666140832045108</v>
       </c>
+      <c r="AF64" t="n">
+        <v>106.4677861531857</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-97.32701235504241</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-54.86592890614026</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7181,6 +7763,15 @@
       <c r="AE65" t="n">
         <v>-0.1813775377711906</v>
       </c>
+      <c r="AF65" t="n">
+        <v>81.88771344497731</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-92.45669783332454</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-95.18002314773574</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7284,6 +7875,15 @@
       <c r="AE66" t="n">
         <v>-0.1716372799073647</v>
       </c>
+      <c r="AF66" t="n">
+        <v>99.71879156990566</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-88.63673943680712</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-58.5842506561911</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7387,6 +7987,15 @@
       <c r="AE67" t="n">
         <v>-0.1844079126768148</v>
       </c>
+      <c r="AF67" t="n">
+        <v>101.3113703366433</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-89.98527932617274</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-67.03447540231856</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7490,6 +8099,15 @@
       <c r="AE68" t="n">
         <v>0.495767950451918</v>
       </c>
+      <c r="AF68" t="n">
+        <v>-86.28119328538838</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-95.55976400156145</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>109.3802847651191</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7593,6 +8211,15 @@
       <c r="AE69" t="n">
         <v>-0.2336301565643602</v>
       </c>
+      <c r="AF69" t="n">
+        <v>114.816442359979</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>-95.08303391367564</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>-85.44987218337522</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7696,6 +8323,15 @@
       <c r="AE70" t="n">
         <v>-0.2448828632465652</v>
       </c>
+      <c r="AF70" t="n">
+        <v>124.5237105629499</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>-89.8444729869333</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>-78.90281887828985</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7799,6 +8435,15 @@
       <c r="AE71" t="n">
         <v>-0.158250079656618</v>
       </c>
+      <c r="AF71" t="n">
+        <v>79.64715107685585</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>-86.1218981034975</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>-73.93954533154643</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7902,6 +8547,15 @@
       <c r="AE72" t="n">
         <v>-0.2047184263565012</v>
       </c>
+      <c r="AF72" t="n">
+        <v>143.9399827535518</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-99.32974276951543</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>-54.96205036338332</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8005,6 +8659,15 @@
       <c r="AE73" t="n">
         <v>-0.381835558414435</v>
       </c>
+      <c r="AF73" t="n">
+        <v>238.3978633871308</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>-17.55002572929769</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>-94.74791956222535</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8108,6 +8771,15 @@
       <c r="AE74" t="n">
         <v>-0.16531913128682</v>
       </c>
+      <c r="AF74" t="n">
+        <v>123.5303437329021</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>-96.55888165434861</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>-47.01677539712288</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8211,6 +8883,15 @@
       <c r="AE75" t="n">
         <v>-0.05444432318061172</v>
       </c>
+      <c r="AF75" t="n">
+        <v>-44.88217123901323</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>314.9692743317681</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>-99.3819638962473</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8314,6 +8995,15 @@
       <c r="AE76" t="n">
         <v>-0.1635595515337951</v>
       </c>
+      <c r="AF76" t="n">
+        <v>-43.5145235116536</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>182.0852386760563</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>-95.85669217841627</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8417,6 +9107,15 @@
       <c r="AE77" t="n">
         <v>-0.2881110082644805</v>
       </c>
+      <c r="AF77" t="n">
+        <v>279.4430868348934</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>-67.32206323946222</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>-82.14256847517977</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8520,6 +9219,15 @@
       <c r="AE78" t="n">
         <v>0.4193196768287479</v>
       </c>
+      <c r="AF78" t="n">
+        <v>-82.50875839905906</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>-96.60850679715513</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>78.44731209368271</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8623,6 +9331,15 @@
       <c r="AE79" t="n">
         <v>-0.1921522754935452</v>
       </c>
+      <c r="AF79" t="n">
+        <v>117.8750182953257</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>-96.25327301002106</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>-61.25737342536532</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8726,6 +9443,15 @@
       <c r="AE80" t="n">
         <v>-0.1829879384631665</v>
       </c>
+      <c r="AF80" t="n">
+        <v>90.20854370014834</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>-80.58908071673201</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>-70.222121899295</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8829,6 +9555,15 @@
       <c r="AE81" t="n">
         <v>-0.2647964214811639</v>
       </c>
+      <c r="AF81" t="n">
+        <v>137.9824149014297</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>-88.31107076139229</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>-80.20755836259609</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8932,6 +9667,15 @@
       <c r="AE82" t="n">
         <v>-0.05432387130617596</v>
       </c>
+      <c r="AF82" t="n">
+        <v>-63.17906469401255</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>427.2225921397289</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>-99.70493125916364</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9035,6 +9779,15 @@
       <c r="AE83" t="n">
         <v>-0.2580493182791805</v>
       </c>
+      <c r="AF83" t="n">
+        <v>111.9021984821375</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>-58.61661936064178</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>-84.46242703739604</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9138,6 +9891,15 @@
       <c r="AE84" t="n">
         <v>-0.0899453200088578</v>
       </c>
+      <c r="AF84" t="n">
+        <v>-57.8281224644048</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>276.9618432070004</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>-99.79920246846255</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9241,6 +10003,15 @@
       <c r="AE85" t="n">
         <v>-0.363381455531255</v>
       </c>
+      <c r="AF85" t="n">
+        <v>209.9033651377489</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>-10.01965812503379</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>-88.44847285852211</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9344,6 +10115,15 @@
       <c r="AE86" t="n">
         <v>-0.1680901144391974</v>
       </c>
+      <c r="AF86" t="n">
+        <v>113.7308716136312</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>-90.8891107817346</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>-50.12784306777262</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9447,6 +10227,15 @@
       <c r="AE87" t="n">
         <v>-0.2165572248882934</v>
       </c>
+      <c r="AF87" t="n">
+        <v>107.8403182548787</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>-93.23844840585733</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>-84.55964297071465</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9550,6 +10339,15 @@
       <c r="AE88" t="n">
         <v>0.474385720147549</v>
       </c>
+      <c r="AF88" t="n">
+        <v>-94.76912438622833</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>-99.44992571328788</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>92.57546500869044</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9653,6 +10451,15 @@
       <c r="AE89" t="n">
         <v>-0.1766031272663469</v>
       </c>
+      <c r="AF89" t="n">
+        <v>-44.65008580517942</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>183.7684422340955</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>-91.95547783540465</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9756,6 +10563,15 @@
       <c r="AE90" t="n">
         <v>-0.2088558603069949</v>
       </c>
+      <c r="AF90" t="n">
+        <v>113.4422065259594</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>-94.04760195798849</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>-72.20709190971721</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9859,6 +10675,15 @@
       <c r="AE91" t="n">
         <v>-0.240072310711985</v>
       </c>
+      <c r="AF91" t="n">
+        <v>162.3045506070142</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>-97.27443827956493</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>-60.21783889318758</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9962,6 +10787,15 @@
       <c r="AE92" t="n">
         <v>-0.140885866632017</v>
       </c>
+      <c r="AF92" t="n">
+        <v>116.7015712218138</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>-95.95301168364843</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>-40.12550491234509</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10065,6 +10899,15 @@
       <c r="AE93" t="n">
         <v>0.40196272310232</v>
       </c>
+      <c r="AF93" t="n">
+        <v>-84.45939344484582</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>-96.73834958443601</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>71.58795302647822</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10168,6 +11011,15 @@
       <c r="AE94" t="n">
         <v>-0.196354684073134</v>
       </c>
+      <c r="AF94" t="n">
+        <v>82.23981096798461</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>-92.69330455361808</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>-98.13347482755816</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10271,6 +11123,15 @@
       <c r="AE95" t="n">
         <v>-0.2024896779691169</v>
       </c>
+      <c r="AF95" t="n">
+        <v>88.31076577758128</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>-92.22365015211433</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>-95.10835282185279</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10374,6 +11235,15 @@
       <c r="AE96" t="n">
         <v>-0.20502571242228</v>
       </c>
+      <c r="AF96" t="n">
+        <v>116.8996946083002</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>-87.5342803335991</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>-61.48059729256576</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10477,6 +11347,15 @@
       <c r="AE97" t="n">
         <v>0.4575743688431601</v>
       </c>
+      <c r="AF97" t="n">
+        <v>-68.43073725683125</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>-99.07458963043619</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>99.86370054958208</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10580,6 +11459,15 @@
       <c r="AE98" t="n">
         <v>-0.2314278695695834</v>
       </c>
+      <c r="AF98" t="n">
+        <v>118.9760532144801</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>-96.40005592415723</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>-79.12101362645636</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10683,6 +11571,15 @@
       <c r="AE99" t="n">
         <v>-0.3007650477631938</v>
       </c>
+      <c r="AF99" t="n">
+        <v>146.1541854814769</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>-92.80970027172093</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>-91.94941240181048</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10786,6 +11683,15 @@
       <c r="AE100" t="n">
         <v>-0.186597749151056</v>
       </c>
+      <c r="AF100" t="n">
+        <v>106.0304372433213</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>-54.23655794292546</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>-98.8455318502143</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10889,6 +11795,15 @@
       <c r="AE101" t="n">
         <v>-0.1902090907855051</v>
       </c>
+      <c r="AF101" t="n">
+        <v>88.50494710662305</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>-73.99658656105633</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>-75.90831135402225</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10992,6 +11907,15 @@
       <c r="AE102" t="n">
         <v>-0.2335800548681545</v>
       </c>
+      <c r="AF102" t="n">
+        <v>85.5707495370883</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>-70.75128862953707</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>-97.35900822422128</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11095,6 +12019,15 @@
       <c r="AE103" t="n">
         <v>-0.1806022638067109</v>
       </c>
+      <c r="AF103" t="n">
+        <v>118.7314576596098</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>-74.14332742652368</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>-52.71017579750467</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11198,6 +12131,15 @@
       <c r="AE104" t="n">
         <v>-0.3258033515884895</v>
       </c>
+      <c r="AF104" t="n">
+        <v>268.253555556274</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>-37.9947999896175</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>-85.96046717532518</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11301,6 +12243,15 @@
       <c r="AE105" t="n">
         <v>-0.2263405549003236</v>
       </c>
+      <c r="AF105" t="n">
+        <v>128.4884709442474</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>-91.24475074947593</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>-68.67339112004939</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11404,6 +12355,15 @@
       <c r="AE106" t="n">
         <v>-0.2636800446885305</v>
       </c>
+      <c r="AF106" t="n">
+        <v>125.3454923465189</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-88.33852914458846</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-87.67170166931837</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11507,6 +12467,15 @@
       <c r="AE107" t="n">
         <v>-0.1986192902777352</v>
       </c>
+      <c r="AF107" t="n">
+        <v>84.59691434043832</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>-86.90252521371498</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>-94.40620640927042</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11610,6 +12579,15 @@
       <c r="AE108" t="n">
         <v>0.424790652673169</v>
       </c>
+      <c r="AF108" t="n">
+        <v>-75.41258624511995</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>-98.26299273051313</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>82.40839247038286</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11713,6 +12691,15 @@
       <c r="AE109" t="n">
         <v>-0.2375122146469214</v>
       </c>
+      <c r="AF109" t="n">
+        <v>117.6733442268607</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>-88.82472603977773</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>-77.82178880971162</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11816,6 +12803,15 @@
       <c r="AE110" t="n">
         <v>-0.2937666125283139</v>
       </c>
+      <c r="AF110" t="n">
+        <v>123.504632338397</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>-59.65671125707279</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>-93.98769086605951</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11919,6 +12915,15 @@
       <c r="AE111" t="n">
         <v>-0.1858258232369807</v>
       </c>
+      <c r="AF111" t="n">
+        <v>106.5511024076097</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>-97.86091187278626</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>-66.89147024969205</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12022,6 +13027,15 @@
       <c r="AE112" t="n">
         <v>0.4418759998023709</v>
       </c>
+      <c r="AF112" t="n">
+        <v>-65.84604123489493</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>-99.5605063189862</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>93.29763122101311</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12125,6 +13139,15 @@
       <c r="AE113" t="n">
         <v>-0.1457394487374129</v>
       </c>
+      <c r="AF113" t="n">
+        <v>105.468065429456</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-94.15587381184292</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>-47.41467455075779</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12228,6 +13251,15 @@
       <c r="AE114" t="n">
         <v>-0.2909586298376026</v>
       </c>
+      <c r="AF114" t="n">
+        <v>140.0291179569151</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>-93.99539400936754</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>-92.21093788518203</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12331,6 +13363,15 @@
       <c r="AE115" t="n">
         <v>-0.2205116857472363</v>
       </c>
+      <c r="AF115" t="n">
+        <v>114.9815587383386</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>-97.20621520689075</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>-78.76700738699019</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12434,6 +13475,15 @@
       <c r="AE116" t="n">
         <v>-0.2120447278741033</v>
       </c>
+      <c r="AF116" t="n">
+        <v>103.5531158064917</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-96.54506011470258</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>-81.83684648264369</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12537,6 +13587,15 @@
       <c r="AE117" t="n">
         <v>-0.2469210694622436</v>
       </c>
+      <c r="AF117" t="n">
+        <v>115.0823988657936</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>-84.46825174569751</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>-85.13866597678381</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12640,6 +13699,15 @@
       <c r="AE118" t="n">
         <v>-0.1608103861621225</v>
       </c>
+      <c r="AF118" t="n">
+        <v>93.88578495661554</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>-97.41383209116773</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>-63.34638554566653</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12743,6 +13811,15 @@
       <c r="AE119" t="n">
         <v>-0.1825079018761773</v>
       </c>
+      <c r="AF119" t="n">
+        <v>89.97160318853643</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>-89.23076304469855</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>-77.5766481403748</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12846,6 +13923,15 @@
       <c r="AE120" t="n">
         <v>-0.2019093042890311</v>
       </c>
+      <c r="AF120" t="n">
+        <v>83.33803625240192</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>-82.77282588902361</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>-90.29540784621692</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12949,6 +14035,15 @@
       <c r="AE121" t="n">
         <v>-0.2923065595343132</v>
       </c>
+      <c r="AF121" t="n">
+        <v>161.7720762091527</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>-86.62757461457961</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>-77.78786742448865</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13052,6 +14147,15 @@
       <c r="AE122" t="n">
         <v>-0.201095338614415</v>
       </c>
+      <c r="AF122" t="n">
+        <v>103.7083564996128</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>-83.42646892266926</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>-71.08969702319621</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13155,6 +14259,15 @@
       <c r="AE123" t="n">
         <v>-0.2418017403558026</v>
       </c>
+      <c r="AF123" t="n">
+        <v>102.1820695849489</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>-74.14685344601763</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>-90.65552260888509</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13258,6 +14371,15 @@
       <c r="AE124" t="n">
         <v>-0.2550888048029464</v>
       </c>
+      <c r="AF124" t="n">
+        <v>122.3428272722161</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>-88.78327553871127</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>-88.26285631496363</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13361,6 +14483,15 @@
       <c r="AE125" t="n">
         <v>-0.3579383500135985</v>
       </c>
+      <c r="AF125" t="n">
+        <v>-23.21123705739332</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>98.678247949843</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>-99.60693844582529</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13464,6 +14595,15 @@
       <c r="AE126" t="n">
         <v>0.4648433960154961</v>
       </c>
+      <c r="AF126" t="n">
+        <v>-59.21549358266962</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>-97.6776034449715</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>115.8085225407367</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13567,6 +14707,15 @@
       <c r="AE127" t="n">
         <v>-0.3296547287593719</v>
       </c>
+      <c r="AF127" t="n">
+        <v>142.1415141985766</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>-65.59955445649123</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>-94.24139569286153</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13670,6 +14819,15 @@
       <c r="AE128" t="n">
         <v>-0.1511500622149148</v>
       </c>
+      <c r="AF128" t="n">
+        <v>76.93534965080883</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>-94.23404879688294</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>-79.32205428026532</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13773,6 +14931,15 @@
       <c r="AE129" t="n">
         <v>-0.1504317196935777</v>
       </c>
+      <c r="AF129" t="n">
+        <v>134.5905268044303</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>-92.83024092845554</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>-36.61836635410278</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13876,6 +15043,15 @@
       <c r="AE130" t="n">
         <v>0.4041046665331138</v>
       </c>
+      <c r="AF130" t="n">
+        <v>-47.02721261974923</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>-99.55137099977883</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>89.97067748931818</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13979,6 +15155,15 @@
       <c r="AE131" t="n">
         <v>-0.1678452818452909</v>
       </c>
+      <c r="AF131" t="n">
+        <v>87.60148584089291</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>-87.45368690683715</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>-67.74304314107981</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14082,6 +15267,15 @@
       <c r="AE132" t="n">
         <v>-0.1714249009133238</v>
       </c>
+      <c r="AF132" t="n">
+        <v>78.71021766127819</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>-90.89625570063677</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>-85.42844767753192</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14185,6 +15379,15 @@
       <c r="AE133" t="n">
         <v>-0.0568988255219091</v>
       </c>
+      <c r="AF133" t="n">
+        <v>-75.98200011575845</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>483.1514875948922</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>-99.94044540631162</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14288,6 +15491,15 @@
       <c r="AE134" t="n">
         <v>-0.2906002196944668</v>
       </c>
+      <c r="AF134" t="n">
+        <v>100.8297820423803</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>-49.98788967761573</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>-95.53247109009241</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14391,6 +15603,15 @@
       <c r="AE135" t="n">
         <v>-0.05859551366677723</v>
       </c>
+      <c r="AF135" t="n">
+        <v>-70.37407179057156</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>494.4872922010013</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>-99.36797970225324</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14494,6 +15715,15 @@
       <c r="AE136" t="n">
         <v>0.4301614647495925</v>
       </c>
+      <c r="AF136" t="n">
+        <v>-94.17276518921405</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>-97.61154147029903</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>77.85967342627707</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14597,6 +15827,15 @@
       <c r="AE137" t="n">
         <v>-0.08150097945256747</v>
       </c>
+      <c r="AF137" t="n">
+        <v>-46.56969032032886</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>241.7792082509702</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>-97.4647675491498</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14700,6 +15939,15 @@
       <c r="AE138" t="n">
         <v>-0.1932252213683794</v>
       </c>
+      <c r="AF138" t="n">
+        <v>180.1829312010431</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>-95.99804676598666</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>-41.80944425902179</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14803,6 +16051,15 @@
       <c r="AE139" t="n">
         <v>-0.2172986595806545</v>
       </c>
+      <c r="AF139" t="n">
+        <v>105.622668348599</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>-96.73944912048961</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>-84.74214277667245</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14906,6 +16163,15 @@
       <c r="AE140" t="n">
         <v>-0.1664551646008257</v>
       </c>
+      <c r="AF140" t="n">
+        <v>98.6711573095282</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>-88.81248821406523</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>-59.45307697257773</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15009,6 +16275,15 @@
       <c r="AE141" t="n">
         <v>-0.1838855611645889</v>
       </c>
+      <c r="AF141" t="n">
+        <v>122.5394585477402</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>-96.28090432712791</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>-57.88637128114414</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15112,6 +16387,15 @@
       <c r="AE142" t="n">
         <v>-0.1974826141273572</v>
       </c>
+      <c r="AF142" t="n">
+        <v>76.14623034659128</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>-77.68687284102158</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>-94.50985780119493</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15215,6 +16499,15 @@
       <c r="AE143" t="n">
         <v>0.4133987568095149</v>
       </c>
+      <c r="AF143" t="n">
+        <v>-91.25244836400988</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>-99.64906458364517</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>72.413694742936</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15318,6 +16611,15 @@
       <c r="AE144" t="n">
         <v>0.4077801124961503</v>
       </c>
+      <c r="AF144" t="n">
+        <v>-71.9975341358669</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>-98.22749064623713</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>77.20553070849243</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15421,6 +16723,15 @@
       <c r="AE145" t="n">
         <v>-0.2707071150937231</v>
       </c>
+      <c r="AF145" t="n">
+        <v>146.4852342737773</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>-94.40251361932461</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>-75.18600430441668</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15524,6 +16835,15 @@
       <c r="AE146" t="n">
         <v>-0.2402326789768378</v>
       </c>
+      <c r="AF146" t="n">
+        <v>105.7477520939615</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>-88.77672949082228</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>-93.21105621611289</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15627,6 +16947,15 @@
       <c r="AE147" t="n">
         <v>-0.22906147748346</v>
       </c>
+      <c r="AF147" t="n">
+        <v>101.5957554576576</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>-91.65685727547974</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>-92.66581687957128</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15730,6 +17059,15 @@
       <c r="AE148" t="n">
         <v>-0.2209139122696641</v>
       </c>
+      <c r="AF148" t="n">
+        <v>152.0953409693588</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>-95.44814065117662</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>-57.05345653887504</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15833,6 +17171,15 @@
       <c r="AE149" t="n">
         <v>-0.1963427513334429</v>
       </c>
+      <c r="AF149" t="n">
+        <v>87.21556502582447</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>-93.94541880943348</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>-90.45081836603471</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15936,6 +17283,15 @@
       <c r="AE150" t="n">
         <v>0.5042503829527611</v>
       </c>
+      <c r="AF150" t="n">
+        <v>-83.34093402096943</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>-94.80721845692828</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>116.6670603760243</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16039,6 +17395,15 @@
       <c r="AE151" t="n">
         <v>0.451967089122259</v>
       </c>
+      <c r="AF151" t="n">
+        <v>-76.15091672704011</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>-93.68289288485134</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>96.08448358136584</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16142,6 +17507,15 @@
       <c r="AE152" t="n">
         <v>-0.2553414802830937</v>
       </c>
+      <c r="AF152" t="n">
+        <v>126.9710291115133</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>-77.31619016674354</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>-73.71535559992661</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16245,6 +17619,15 @@
       <c r="AE153" t="n">
         <v>-0.2658294931220396</v>
       </c>
+      <c r="AF153" t="n">
+        <v>132.8689736302374</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>-91.67335481060219</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>-88.86888968292503</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16348,6 +17731,15 @@
       <c r="AE154" t="n">
         <v>-0.2281488900964795</v>
       </c>
+      <c r="AF154" t="n">
+        <v>114.3796121279405</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>-83.7365315048056</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>-76.96194239136996</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16451,6 +17843,15 @@
       <c r="AE155" t="n">
         <v>-0.2147541834428971</v>
       </c>
+      <c r="AF155" t="n">
+        <v>97.45688849156572</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>-95.53009454351826</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>-89.8497968508603</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16554,6 +17955,15 @@
       <c r="AE156" t="n">
         <v>-0.1648306850522084</v>
       </c>
+      <c r="AF156" t="n">
+        <v>84.21974392420886</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>-93.61374214244356</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>-66.67817738402402</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16657,6 +18067,15 @@
       <c r="AE157" t="n">
         <v>-0.276121815373029</v>
       </c>
+      <c r="AF157" t="n">
+        <v>-60.90828825483469</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>98.50903844541178</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>-99.02027892805194</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16760,6 +18179,15 @@
       <c r="AE158" t="n">
         <v>-0.2393029590952655</v>
       </c>
+      <c r="AF158" t="n">
+        <v>127.8083514787018</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>-88.64725457072969</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>-71.81728758023237</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16863,6 +18291,15 @@
       <c r="AE159" t="n">
         <v>-0.2384165832931874</v>
       </c>
+      <c r="AF159" t="n">
+        <v>109.3740092843329</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>-92.29075718985104</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>-95.09407999696801</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16966,6 +18403,15 @@
       <c r="AE160" t="n">
         <v>-0.2102023496946623</v>
       </c>
+      <c r="AF160" t="n">
+        <v>96.89190051267276</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>-95.29303160302881</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>-90.02925318814047</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17069,6 +18515,15 @@
       <c r="AE161" t="n">
         <v>-0.1893205028898172</v>
       </c>
+      <c r="AF161" t="n">
+        <v>84.12622926698205</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>-91.39494075577184</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>-91.72627155917536</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17172,6 +18627,15 @@
       <c r="AE162" t="n">
         <v>0.4192227308009616</v>
       </c>
+      <c r="AF162" t="n">
+        <v>-83.94656615711261</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>-98.98645952330327</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>76.39716903547182</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17275,6 +18739,15 @@
       <c r="AE163" t="n">
         <v>-0.124604350895396</v>
       </c>
+      <c r="AF163" t="n">
+        <v>-56.16968598400006</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>201.3012465940533</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>-96.72345308954675</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17378,6 +18851,15 @@
       <c r="AE164" t="n">
         <v>-0.04779399357079829</v>
       </c>
+      <c r="AF164" t="n">
+        <v>-60.31731844214999</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>568.8062724611369</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>-99.15647812698644</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17481,6 +18963,15 @@
       <c r="AE165" t="n">
         <v>-0.1544459015734415</v>
       </c>
+      <c r="AF165" t="n">
+        <v>-40.88596701970823</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>175.8617931757636</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>-97.96182268137257</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17584,6 +19075,15 @@
       <c r="AE166" t="n">
         <v>-0.2019311502974909</v>
       </c>
+      <c r="AF166" t="n">
+        <v>103.929262286361</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>-94.78144978884711</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>-77.05467826318217</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17687,6 +19187,15 @@
       <c r="AE167" t="n">
         <v>0.524324086921901</v>
       </c>
+      <c r="AF167" t="n">
+        <v>-73.86391630984184</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>-95.88071417637875</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>138.7697659937897</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17790,6 +19299,15 @@
       <c r="AE168" t="n">
         <v>-0.1638846552999597</v>
       </c>
+      <c r="AF168" t="n">
+        <v>107.4814267758091</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>-98.81492928306666</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>-55.52785575802738</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17893,6 +19411,15 @@
       <c r="AE169" t="n">
         <v>-0.197291852113967</v>
       </c>
+      <c r="AF169" t="n">
+        <v>87.97668024400576</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>-82.31385917510669</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>-84.52770970093303</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17996,6 +19523,15 @@
       <c r="AE170" t="n">
         <v>-0.191925183424305</v>
       </c>
+      <c r="AF170" t="n">
+        <v>76.9640802878593</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>-77.9340071674487</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>-94.46373054306657</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18099,6 +19635,15 @@
       <c r="AE171" t="n">
         <v>-0.1643631729672362</v>
       </c>
+      <c r="AF171" t="n">
+        <v>131.404475537509</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>-97.88619352612201</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>-44.36821856408364</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18202,6 +19747,15 @@
       <c r="AE172" t="n">
         <v>0.4706102071562578</v>
       </c>
+      <c r="AF172" t="n">
+        <v>-63.9158819229808</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>-93.13498737155464</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>119.3135289907924</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18305,6 +19859,15 @@
       <c r="AE173" t="n">
         <v>-0.1410196466601766</v>
       </c>
+      <c r="AF173" t="n">
+        <v>102.9182915897366</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>-91.64656396052446</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>-44.83065721233434</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18408,6 +19971,15 @@
       <c r="AE174" t="n">
         <v>0.478952162224025</v>
       </c>
+      <c r="AF174" t="n">
+        <v>-67.97420875932005</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>-96.21223190934629</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>115.3133335425624</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18511,6 +20083,15 @@
       <c r="AE175" t="n">
         <v>-0.2471737916811444</v>
       </c>
+      <c r="AF175" t="n">
+        <v>-41.72419627169644</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>135.2725256200694</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>-83.2790148561875</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18614,6 +20195,15 @@
       <c r="AE176" t="n">
         <v>-0.07577173076099014</v>
       </c>
+      <c r="AF176" t="n">
+        <v>-58.83828875413184</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>326.2481885907597</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>-99.23684984529663</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18717,6 +20307,15 @@
       <c r="AE177" t="n">
         <v>-0.2147536150388071</v>
       </c>
+      <c r="AF177" t="n">
+        <v>121.9232628302103</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>-95.98637602392041</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>-69.59129777249669</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18820,6 +20419,15 @@
       <c r="AE178" t="n">
         <v>-0.1842878416986451</v>
       </c>
+      <c r="AF178" t="n">
+        <v>86.47221570740764</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>-87.77801596070832</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>-80.975779502297</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18923,6 +20531,15 @@
       <c r="AE179" t="n">
         <v>-0.2023685465964894</v>
       </c>
+      <c r="AF179" t="n">
+        <v>130.0476937071812</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>-87.93520546308748</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>-56.06735932719976</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19026,6 +20643,15 @@
       <c r="AE180" t="n">
         <v>-0.2217279368018296</v>
       </c>
+      <c r="AF180" t="n">
+        <v>128.2765300456247</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>-92.01346767832432</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>-68.76886140476994</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19129,6 +20755,15 @@
       <c r="AE181" t="n">
         <v>-0.1722348371199398</v>
       </c>
+      <c r="AF181" t="n">
+        <v>83.82047066822999</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>-90.25484791527303</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>-80.97708074323488</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19232,6 +20867,15 @@
       <c r="AE182" t="n">
         <v>0.4522489142145943</v>
       </c>
+      <c r="AF182" t="n">
+        <v>-84.81984433302355</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>-87.66114430662078</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>95.00584966538555</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19335,6 +20979,15 @@
       <c r="AE183" t="n">
         <v>0.4721590634376957</v>
       </c>
+      <c r="AF183" t="n">
+        <v>-71.17982844079643</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>-78.64527469353341</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>128.5533068486304</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19438,6 +21091,15 @@
       <c r="AE184" t="n">
         <v>-0.1543591432948656</v>
       </c>
+      <c r="AF184" t="n">
+        <v>91.90643577900126</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>-94.08413865267093</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>-59.18161634962122</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19541,6 +21203,15 @@
       <c r="AE185" t="n">
         <v>0.4049351424161319</v>
       </c>
+      <c r="AF185" t="n">
+        <v>-66.19047410497022</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>-78.7367958252995</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>91.68564704205954</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19644,6 +21315,15 @@
       <c r="AE186" t="n">
         <v>-0.2150170800863527</v>
       </c>
+      <c r="AF186" t="n">
+        <v>121.5974753358508</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>-96.93629752757448</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>-73.06405634002276</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19747,6 +21427,15 @@
       <c r="AE187" t="n">
         <v>-0.204507731981223</v>
       </c>
+      <c r="AF187" t="n">
+        <v>133.8184150118344</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>-98.21743576950963</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>-56.23088664817045</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19850,6 +21539,15 @@
       <c r="AE188" t="n">
         <v>0.4626543305155584</v>
       </c>
+      <c r="AF188" t="n">
+        <v>-86.15431668356483</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>-94.89084556503722</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>94.18155794829566</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19953,6 +21651,15 @@
       <c r="AE189" t="n">
         <v>-0.1287857820992792</v>
       </c>
+      <c r="AF189" t="n">
+        <v>-43.74011696388654</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>187.5448575496146</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>-92.65408807728414</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20056,6 +21763,15 @@
       <c r="AE190" t="n">
         <v>0.4474269478317117</v>
       </c>
+      <c r="AF190" t="n">
+        <v>-62.00317988427798</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>-49.2700195713164</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>200.98800676005</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20159,6 +21875,15 @@
       <c r="AE191" t="n">
         <v>-0.169954348897306</v>
       </c>
+      <c r="AF191" t="n">
+        <v>88.92327269742091</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>-98.8412218521933</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>-80.15244786306222</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20262,6 +21987,15 @@
       <c r="AE192" t="n">
         <v>0.422522113197537</v>
       </c>
+      <c r="AF192" t="n">
+        <v>-47.43036939378261</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>-97.93668660903866</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>101.636085820766</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20365,6 +22099,15 @@
       <c r="AE193" t="n">
         <v>-0.1613920168183468</v>
       </c>
+      <c r="AF193" t="n">
+        <v>74.65671516312085</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>-93.78553826878432</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>-88.06763466298165</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20468,6 +22211,15 @@
       <c r="AE194" t="n">
         <v>0.4153430700302216</v>
       </c>
+      <c r="AF194" t="n">
+        <v>-87.51184781907888</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>-98.52230047660895</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>74.6255671088892</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20571,6 +22323,15 @@
       <c r="AE195" t="n">
         <v>0.4524591232296556</v>
       </c>
+      <c r="AF195" t="n">
+        <v>-83.84131940660397</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>-99.63059139173822</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>88.38166644717401</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20674,6 +22435,15 @@
       <c r="AE196" t="n">
         <v>-0.1740307908123263</v>
       </c>
+      <c r="AF196" t="n">
+        <v>71.6971340704839</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>-87.52164991319198</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>-98.47941157941317</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20777,6 +22547,15 @@
       <c r="AE197" t="n">
         <v>-0.2887121237488745</v>
       </c>
+      <c r="AF197" t="n">
+        <v>203.7460247652501</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>-61.27619248496941</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>-94.83874128893957</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20880,6 +22659,15 @@
       <c r="AE198" t="n">
         <v>-0.2383939390447871</v>
       </c>
+      <c r="AF198" t="n">
+        <v>105.0621825080835</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>-97.71782991603195</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>-94.5519083137568</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20983,6 +22771,15 @@
       <c r="AE199" t="n">
         <v>-0.1749349883073472</v>
       </c>
+      <c r="AF199" t="n">
+        <v>91.90066469285621</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>-98.59065077459272</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>-73.75908058016203</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21086,6 +22883,15 @@
       <c r="AE200" t="n">
         <v>-0.2675575680725719</v>
       </c>
+      <c r="AF200" t="n">
+        <v>126.1245722956163</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>-84.23331642562346</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>-84.52803016294281</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21189,6 +22995,15 @@
       <c r="AE201" t="n">
         <v>0.4032463880975989</v>
       </c>
+      <c r="AF201" t="n">
+        <v>-89.66561980824083</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>-96.16775476581823</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>71.15852644778788</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21292,6 +23107,15 @@
       <c r="AE202" t="n">
         <v>-0.2043390674357487</v>
       </c>
+      <c r="AF202" t="n">
+        <v>122.219469829515</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>-94.88934349736914</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>-64.47491313021406</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21395,6 +23219,15 @@
       <c r="AE203" t="n">
         <v>-0.1583097940385065</v>
       </c>
+      <c r="AF203" t="n">
+        <v>78.14336685781578</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>-90.94561020260166</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>-73.92693085696548</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21498,6 +23331,15 @@
       <c r="AE204" t="n">
         <v>-0.179275506522061</v>
       </c>
+      <c r="AF204" t="n">
+        <v>79.48270391153703</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>-93.39231747995402</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>-97.70373301610901</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21601,6 +23443,15 @@
       <c r="AE205" t="n">
         <v>-0.184993527388164</v>
       </c>
+      <c r="AF205" t="n">
+        <v>93.92984084468846</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>-94.8950946011684</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>-77.11504858232246</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21704,6 +23555,15 @@
       <c r="AE206" t="n">
         <v>-0.2073018212567989</v>
       </c>
+      <c r="AF206" t="n">
+        <v>84.5048284498201</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>-78.17305319821571</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>-87.48743038400218</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21807,6 +23667,15 @@
       <c r="AE207" t="n">
         <v>0.4152447228966736</v>
       </c>
+      <c r="AF207" t="n">
+        <v>-45.76299757040324</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>-98.42061237586556</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>98.75814455537115</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21910,6 +23779,15 @@
       <c r="AE208" t="n">
         <v>-0.2079300051327485</v>
       </c>
+      <c r="AF208" t="n">
+        <v>94.3003337067843</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>-91.04116060631149</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>-91.43945643898837</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22013,6 +23891,15 @@
       <c r="AE209" t="n">
         <v>-0.158351310547888</v>
       </c>
+      <c r="AF209" t="n">
+        <v>71.56731944411531</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>-97.3478409648868</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>-97.24228178317499</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22116,6 +24003,15 @@
       <c r="AE210" t="n">
         <v>-0.2227939754238253</v>
       </c>
+      <c r="AF210" t="n">
+        <v>109.2665712904182</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>-96.59730792708029</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>-87.49630331912466</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22219,6 +24115,15 @@
       <c r="AE211" t="n">
         <v>-0.1548469006873826</v>
       </c>
+      <c r="AF211" t="n">
+        <v>68.50128491409173</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>-96.41708583040479</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>-98.15963823621662</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22322,6 +24227,15 @@
       <c r="AE212" t="n">
         <v>-0.1556706699345508</v>
       </c>
+      <c r="AF212" t="n">
+        <v>-39.07143635187765</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>188.8168705547712</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>-98.69868358400389</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22425,6 +24339,15 @@
       <c r="AE213" t="n">
         <v>-0.1978981417792299</v>
       </c>
+      <c r="AF213" t="n">
+        <v>83.6503242675461</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>-85.78450005171052</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>-96.84020173198915</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22528,6 +24451,15 @@
       <c r="AE214" t="n">
         <v>0.4154731150261909</v>
       </c>
+      <c r="AF214" t="n">
+        <v>-67.20694247909148</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>-99.33087315363906</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>81.51312121390248</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22631,6 +24563,15 @@
       <c r="AE215" t="n">
         <v>0.5086971305503853</v>
       </c>
+      <c r="AF215" t="n">
+        <v>-66.38875113351916</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>-95.87601639584982</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>140.3785210184451</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22734,6 +24675,15 @@
       <c r="AE216" t="n">
         <v>-0.2352590766844473</v>
       </c>
+      <c r="AF216" t="n">
+        <v>106.428854312046</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>-71.97439410190275</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>-77.21895317911982</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22837,6 +24787,15 @@
       <c r="AE217" t="n">
         <v>0.5025754647528894</v>
       </c>
+      <c r="AF217" t="n">
+        <v>-89.08477837922582</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>-94.2036600118262</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>111.3252119579795</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22940,6 +24899,15 @@
       <c r="AE218" t="n">
         <v>0.4461250694077427</v>
       </c>
+      <c r="AF218" t="n">
+        <v>-89.94041811284049</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>-97.12078654102957</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>85.03060834308913</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23043,6 +25011,15 @@
       <c r="AE219" t="n">
         <v>-0.2003743216450448</v>
       </c>
+      <c r="AF219" t="n">
+        <v>122.4192763390003</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>-93.91354483336958</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>-61.49967388515257</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23146,6 +25123,15 @@
       <c r="AE220" t="n">
         <v>-0.2474914910291122</v>
       </c>
+      <c r="AF220" t="n">
+        <v>127.8034595938476</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>-87.08812409288052</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>-77.46955077593753</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23249,6 +25235,15 @@
       <c r="AE221" t="n">
         <v>0.500964820311455</v>
       </c>
+      <c r="AF221" t="n">
+        <v>-83.8678822665414</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>-99.89930818737575</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>109.75077906783</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23352,6 +25347,15 @@
       <c r="AE222" t="n">
         <v>-0.2038079445820676</v>
       </c>
+      <c r="AF222" t="n">
+        <v>96.91257124652898</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>-75.02400093961154</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>-72.70282207385289</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23455,6 +25459,15 @@
       <c r="AE223" t="n">
         <v>0.4531643453155326</v>
       </c>
+      <c r="AF223" t="n">
+        <v>-58.44239060043812</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>-99.17363658256659</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>106.6649493581802</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23558,6 +25571,15 @@
       <c r="AE224" t="n">
         <v>0.4044881591924854</v>
       </c>
+      <c r="AF224" t="n">
+        <v>-84.82332635143455</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>-94.8559999461539</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>73.45563829413021</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23661,6 +25683,15 @@
       <c r="AE225" t="n">
         <v>-0.2883959436410701</v>
       </c>
+      <c r="AF225" t="n">
+        <v>103.8611815031275</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>-41.48933203908445</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>-94.45549059689438</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23764,6 +25795,15 @@
       <c r="AE226" t="n">
         <v>-0.1786993945449763</v>
       </c>
+      <c r="AF226" t="n">
+        <v>81.7571171672237</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>-98.01378465303789</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>-90.11793453375003</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23867,6 +25907,15 @@
       <c r="AE227" t="n">
         <v>-0.2285025912224889</v>
       </c>
+      <c r="AF227" t="n">
+        <v>99.62632571519823</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>-82.00718185820151</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>-89.29318984797639</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23970,6 +26019,15 @@
       <c r="AE228" t="n">
         <v>-0.2028118951293185</v>
       </c>
+      <c r="AF228" t="n">
+        <v>122.3736294608326</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>-98.28551181276769</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>-59.71904743205661</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24073,6 +26131,15 @@
       <c r="AE229" t="n">
         <v>-0.2336465603916401</v>
       </c>
+      <c r="AF229" t="n">
+        <v>105.0430377759244</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>-77.12438197758246</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>-82.71786544505622</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24176,6 +26243,15 @@
       <c r="AE230" t="n">
         <v>-0.2769823258442103</v>
       </c>
+      <c r="AF230" t="n">
+        <v>150.1130753120402</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>-96.6487107070808</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>-81.24092823400174</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24279,6 +26355,15 @@
       <c r="AE231" t="n">
         <v>-0.1741013887546645</v>
       </c>
+      <c r="AF231" t="n">
+        <v>97.90306411081217</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>-97.79441160636037</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>-68.16573831502288</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24382,6 +26467,15 @@
       <c r="AE232" t="n">
         <v>-0.06655804153317915</v>
       </c>
+      <c r="AF232" t="n">
+        <v>-46.39036097102302</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>272.5703595967493</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>-94.66886061793699</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24485,6 +26579,15 @@
       <c r="AE233" t="n">
         <v>-0.2940126510430951</v>
       </c>
+      <c r="AF233" t="n">
+        <v>135.6930518535051</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>-87.2155596338402</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>-94.32100706686968</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24588,6 +26691,15 @@
       <c r="AE234" t="n">
         <v>-0.204137404685991</v>
       </c>
+      <c r="AF234" t="n">
+        <v>91.51312477677472</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>-92.87709147845139</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>-94.01166222144305</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24691,6 +26803,15 @@
       <c r="AE235" t="n">
         <v>-0.1624081590037951</v>
       </c>
+      <c r="AF235" t="n">
+        <v>82.24126779018518</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>-82.77066042244634</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>-71.92093038317384</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24794,6 +26915,15 @@
       <c r="AE236" t="n">
         <v>0.4653635008752649</v>
       </c>
+      <c r="AF236" t="n">
+        <v>-97.39981255796782</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>-99.68162724935935</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>88.09081937302462</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24897,6 +27027,15 @@
       <c r="AE237" t="n">
         <v>-0.2899373863233636</v>
       </c>
+      <c r="AF237" t="n">
+        <v>141.5818004564721</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>-99.28671321797174</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>-93.57648064899112</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25000,6 +27139,15 @@
       <c r="AE238" t="n">
         <v>-0.2601776492909248</v>
       </c>
+      <c r="AF238" t="n">
+        <v>112.4476492414067</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>-87.8648906010163</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>-95.30161325261595</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25103,6 +27251,15 @@
       <c r="AE239" t="n">
         <v>-0.165422262728379</v>
       </c>
+      <c r="AF239" t="n">
+        <v>78.81299947132131</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>-91.93646143844222</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>-83.40384987508635</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25206,6 +27363,15 @@
       <c r="AE240" t="n">
         <v>-0.2474080800231659</v>
       </c>
+      <c r="AF240" t="n">
+        <v>99.64791281224899</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>-65.34366220292299</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>-88.97765390082252</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25309,6 +27475,15 @@
       <c r="AE241" t="n">
         <v>-0.2816516548826146</v>
       </c>
+      <c r="AF241" t="n">
+        <v>116.7325022091062</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>-74.36639799091108</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>-93.57505639192128</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25412,6 +27587,15 @@
       <c r="AE242" t="n">
         <v>-0.1973870673117322</v>
       </c>
+      <c r="AF242" t="n">
+        <v>98.05615546906733</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>-94.44399677157743</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>-83.58134667147637</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25515,6 +27699,15 @@
       <c r="AE243" t="n">
         <v>-0.1548936337199035</v>
       </c>
+      <c r="AF243" t="n">
+        <v>80.38027232388997</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>-95.35867429262707</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>-73.03115502822891</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25618,6 +27811,15 @@
       <c r="AE244" t="n">
         <v>-0.2516073519652098</v>
       </c>
+      <c r="AF244" t="n">
+        <v>122.0332780490412</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>-96.11940671694242</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>-89.85755424158943</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25721,6 +27923,15 @@
       <c r="AE245" t="n">
         <v>-0.2254519422378388</v>
       </c>
+      <c r="AF245" t="n">
+        <v>112.6746088472594</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>-91.32402398161717</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>-79.90300357690199</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25824,6 +28035,15 @@
       <c r="AE246" t="n">
         <v>-0.2816566252992025</v>
       </c>
+      <c r="AF246" t="n">
+        <v>128.2752900743729</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>-43.66565726868147</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>-76.25187559170716</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25927,6 +28147,15 @@
       <c r="AE247" t="n">
         <v>-0.2166659249983079</v>
       </c>
+      <c r="AF247" t="n">
+        <v>99.98993696913615</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>-76.65658470015174</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>-78.29086633371871</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26030,6 +28259,15 @@
       <c r="AE248" t="n">
         <v>-0.2079940043511225</v>
       </c>
+      <c r="AF248" t="n">
+        <v>91.15349439779001</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>-79.56441495238073</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>-80.73417155827839</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26133,6 +28371,15 @@
       <c r="AE249" t="n">
         <v>0.4711496129925172</v>
       </c>
+      <c r="AF249" t="n">
+        <v>-46.90132931043672</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>-93.36956532921482</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>179.248785876748</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26236,6 +28483,15 @@
       <c r="AE250" t="n">
         <v>-0.2267337036506127</v>
       </c>
+      <c r="AF250" t="n">
+        <v>120.8387534435034</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>-96.52672220599246</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>-77.65900562597659</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26339,6 +28595,15 @@
       <c r="AE251" t="n">
         <v>-0.1742903270797153</v>
       </c>
+      <c r="AF251" t="n">
+        <v>101.8420632251472</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>-85.15919306755355</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>-58.40989467911759</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26442,6 +28707,15 @@
       <c r="AE252" t="n">
         <v>-0.1294924335350233</v>
       </c>
+      <c r="AF252" t="n">
+        <v>-52.05476007164499</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>163.1644390657353</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>-83.97473121796047</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26545,6 +28819,15 @@
       <c r="AE253" t="n">
         <v>-0.2138807635195366</v>
       </c>
+      <c r="AF253" t="n">
+        <v>102.8055001303698</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>-86.33039800568247</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>-80.50556655618367</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26648,6 +28931,15 @@
       <c r="AE254" t="n">
         <v>-0.1500122245775685</v>
       </c>
+      <c r="AF254" t="n">
+        <v>78.54166681073342</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>-93.62218138333253</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>-73.14993821988435</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26751,6 +29043,15 @@
       <c r="AE255" t="n">
         <v>-0.02655579130137586</v>
       </c>
+      <c r="AF255" t="n">
+        <v>-77.05642641161144</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>976.7826022076754</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>-99.83386001900689</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26854,6 +29155,15 @@
       <c r="AE256" t="n">
         <v>0.4039042586447981</v>
       </c>
+      <c r="AF256" t="n">
+        <v>-48.20121202772153</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>-98.34010315968969</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>88.67131685913027</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26957,6 +29267,15 @@
       <c r="AE257" t="n">
         <v>-0.2470350586884557</v>
       </c>
+      <c r="AF257" t="n">
+        <v>104.1113358469627</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>-75.27939456417585</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>-88.26777278373559</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27060,6 +29379,15 @@
       <c r="AE258" t="n">
         <v>-0.2094465338293345</v>
       </c>
+      <c r="AF258" t="n">
+        <v>115.4263728921152</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>-94.67919485850844</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>-68.90582141272152</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27163,6 +29491,15 @@
       <c r="AE259" t="n">
         <v>-0.2369223144963454</v>
       </c>
+      <c r="AF259" t="n">
+        <v>103.2376752678546</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>-76.90409603124098</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>-89.51315784629634</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27266,6 +29603,15 @@
       <c r="AE260" t="n">
         <v>-0.2234447159102746</v>
       </c>
+      <c r="AF260" t="n">
+        <v>122.9132051105027</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>-91.61379446500864</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>-67.18606805850905</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27369,6 +29715,15 @@
       <c r="AE261" t="n">
         <v>0.4733287921506812</v>
       </c>
+      <c r="AF261" t="n">
+        <v>-57.21009890494651</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>-91.18182903638026</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>137.7869811032905</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27472,6 +29827,15 @@
       <c r="AE262" t="n">
         <v>0.5325985516227361</v>
       </c>
+      <c r="AF262" t="n">
+        <v>-98.7485108496905</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>-99.48245003019512</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>115.1270022038928</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27575,6 +29939,15 @@
       <c r="AE263" t="n">
         <v>-0.1106906518668951</v>
       </c>
+      <c r="AF263" t="n">
+        <v>-56.2944590604191</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>235.8394202742599</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>-71.67694209258102</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27678,6 +30051,15 @@
       <c r="AE264" t="n">
         <v>-0.232273422622421</v>
       </c>
+      <c r="AF264" t="n">
+        <v>108.6879355115607</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>-97.74246383305298</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>-87.71951321508119</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27781,6 +30163,15 @@
       <c r="AE265" t="n">
         <v>0.4813018900310961</v>
       </c>
+      <c r="AF265" t="n">
+        <v>-90.61318994151299</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>-94.09457993759352</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>100.6111173402195</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27884,6 +30275,15 @@
       <c r="AE266" t="n">
         <v>0.4077608202600039</v>
       </c>
+      <c r="AF266" t="n">
+        <v>-76.74885261747917</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>-90.40100463810501</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>78.93493564290839</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27987,6 +30387,15 @@
       <c r="AE267" t="n">
         <v>-0.1352464323659545</v>
       </c>
+      <c r="AF267" t="n">
+        <v>103.6257883279902</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>-96.15302042923007</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>-41.77057277719053</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -28090,6 +30499,15 @@
       <c r="AE268" t="n">
         <v>0.5006385740475241</v>
       </c>
+      <c r="AF268" t="n">
+        <v>-89.68783007308771</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>-98.48553183557667</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>106.6984851760804</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -28193,6 +30611,15 @@
       <c r="AE269" t="n">
         <v>-0.2429930748712961</v>
       </c>
+      <c r="AF269" t="n">
+        <v>121.5963684472056</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>-78.90301314439971</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>-74.28363972619539</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -28296,6 +30723,15 @@
       <c r="AE270" t="n">
         <v>-0.2280670196966267</v>
       </c>
+      <c r="AF270" t="n">
+        <v>110.3197089691979</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>-95.23536422071032</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>-85.29598703547603</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -28399,6 +30835,15 @@
       <c r="AE271" t="n">
         <v>-0.2556350032153149</v>
       </c>
+      <c r="AF271" t="n">
+        <v>120.8340481261957</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>-98.15056522796255</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>-93.23467165659713</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28502,6 +30947,15 @@
       <c r="AE272" t="n">
         <v>-0.2661297013640159</v>
       </c>
+      <c r="AF272" t="n">
+        <v>134.9605386338407</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>-84.74171139642552</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>-79.01968552778173</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28605,6 +31059,15 @@
       <c r="AE273" t="n">
         <v>-0.2102208723643411</v>
       </c>
+      <c r="AF273" t="n">
+        <v>81.80211031491179</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>-73.79541291304969</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>-95.30581484293815</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28708,6 +31171,15 @@
       <c r="AE274" t="n">
         <v>-0.188671059129317</v>
       </c>
+      <c r="AF274" t="n">
+        <v>97.08432245899894</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>-78.89120998950915</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>-64.34653906994268</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28811,6 +31283,15 @@
       <c r="AE275" t="n">
         <v>-0.2236968955032073</v>
       </c>
+      <c r="AF275" t="n">
+        <v>115.1493818196981</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>-73.99646202291845</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>-68.73541242124413</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28914,6 +31395,15 @@
       <c r="AE276" t="n">
         <v>-0.1858433336288806</v>
       </c>
+      <c r="AF276" t="n">
+        <v>83.74305797811763</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>-91.17297447792171</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>-90.14922691778644</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -29017,6 +31507,15 @@
       <c r="AE277" t="n">
         <v>0.4100170206666454</v>
       </c>
+      <c r="AF277" t="n">
+        <v>-59.9700601195459</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>-91.4795416717196</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>87.97313434248238</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -29120,6 +31619,15 @@
       <c r="AE278" t="n">
         <v>-0.1585808199796511</v>
       </c>
+      <c r="AF278" t="n">
+        <v>-62.29845973951692</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>180.4857071693772</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>-86.94405384488167</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -29223,6 +31731,15 @@
       <c r="AE279" t="n">
         <v>-0.2118122794279719</v>
       </c>
+      <c r="AF279" t="n">
+        <v>-58.70672944439228</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>184.4435586026623</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>-96.88896977663444</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -29326,6 +31843,15 @@
       <c r="AE280" t="n">
         <v>0.476467057367601</v>
       </c>
+      <c r="AF280" t="n">
+        <v>-61.99460934628327</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>-86.58133442295272</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>136.6401246459629</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29429,6 +31955,15 @@
       <c r="AE281" t="n">
         <v>0.4742722370591617</v>
       </c>
+      <c r="AF281" t="n">
+        <v>-96.74423358901015</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>-99.01237971641503</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>91.91435743394632</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -29532,6 +32067,15 @@
       <c r="AE282" t="n">
         <v>-0.1464260953937391</v>
       </c>
+      <c r="AF282" t="n">
+        <v>99.82645151000973</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>-96.95729596565013</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>-48.79855188644673</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29635,6 +32179,15 @@
       <c r="AE283" t="n">
         <v>-0.1809752024247722</v>
       </c>
+      <c r="AF283" t="n">
+        <v>87.37886724812877</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>-83.61456544963922</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>-74.11716590876979</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29738,6 +32291,15 @@
       <c r="AE284" t="n">
         <v>-0.1877237237838399</v>
       </c>
+      <c r="AF284" t="n">
+        <v>129.7260479112963</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>-80.22007393933475</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>-47.86922845005917</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -29841,6 +32403,15 @@
       <c r="AE285" t="n">
         <v>-0.2550366013732636</v>
       </c>
+      <c r="AF285" t="n">
+        <v>118.6532862219648</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>-89.37110834838032</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>-90.20980715336971</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29944,6 +32515,15 @@
       <c r="AE286" t="n">
         <v>-0.2390539375916054</v>
       </c>
+      <c r="AF286" t="n">
+        <v>113.8964284464438</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>-86.57676881396222</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>-83.38981812721417</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -30047,6 +32627,15 @@
       <c r="AE287" t="n">
         <v>-0.1554968329528101</v>
       </c>
+      <c r="AF287" t="n">
+        <v>92.07199804164388</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>-87.2936291027856</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>-56.03852152735932</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -30150,6 +32739,15 @@
       <c r="AE288" t="n">
         <v>0.4856445631703928</v>
       </c>
+      <c r="AF288" t="n">
+        <v>-90.06880344579882</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>-91.58963185000545</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>104.3376132244245</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -30253,6 +32851,15 @@
       <c r="AE289" t="n">
         <v>0.444904893797932</v>
       </c>
+      <c r="AF289" t="n">
+        <v>-63.48316306447268</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>-84.98407217698463</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>112.8065597213869</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -30356,6 +32963,15 @@
       <c r="AE290" t="n">
         <v>-0.1435752516383646</v>
       </c>
+      <c r="AF290" t="n">
+        <v>95.34438791160578</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>-93.09858863521021</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>-50.45858305971714</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -30459,6 +33075,15 @@
       <c r="AE291" t="n">
         <v>-0.229296425578564</v>
       </c>
+      <c r="AF291" t="n">
+        <v>116.0966638095472</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>-89.29355612928624</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>-79.25627909056412</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -30562,6 +33187,15 @@
       <c r="AE292" t="n">
         <v>-0.2875004442777842</v>
       </c>
+      <c r="AF292" t="n">
+        <v>245.0623570923141</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>-43.01323515840382</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>-80.96286934955319</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -30665,6 +33299,15 @@
       <c r="AE293" t="n">
         <v>-0.2114782377244097</v>
       </c>
+      <c r="AF293" t="n">
+        <v>118.8862010298819</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>-87.05548925240349</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>-64.56304351436411</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30768,6 +33411,15 @@
       <c r="AE294" t="n">
         <v>-0.1720865677532155</v>
       </c>
+      <c r="AF294" t="n">
+        <v>73.59643817993206</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>-88.80851536826904</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>-92.70502050037923</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -30871,6 +33523,15 @@
       <c r="AE295" t="n">
         <v>0.4265223154527261</v>
       </c>
+      <c r="AF295" t="n">
+        <v>-66.75237857195611</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>-99.79098401918482</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>85.7745206857029</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -30974,6 +33635,15 @@
       <c r="AE296" t="n">
         <v>-0.1579492696359148</v>
       </c>
+      <c r="AF296" t="n">
+        <v>71.20428246080019</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>-95.06874920584926</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>-90.5766085659409</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -31077,6 +33747,15 @@
       <c r="AE297" t="n">
         <v>0.4348208705540113</v>
       </c>
+      <c r="AF297" t="n">
+        <v>-53.96545937768159</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>-98.17472903612227</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>101.5884865361769</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -31180,6 +33859,15 @@
       <c r="AE298" t="n">
         <v>-0.1812397190100186</v>
       </c>
+      <c r="AF298" t="n">
+        <v>91.62613047044061</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>-88.85172717778029</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>-71.71825644780505</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -31283,6 +33971,15 @@
       <c r="AE299" t="n">
         <v>-0.2113507736482222</v>
       </c>
+      <c r="AF299" t="n">
+        <v>104.8776251684855</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>-98.07278365459796</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>-83.49079144987336</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -31386,6 +34083,15 @@
       <c r="AE300" t="n">
         <v>-0.2858419820899244</v>
       </c>
+      <c r="AF300" t="n">
+        <v>144.7105173445143</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>-94.4455347510756</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>-85.16600406189055</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -31489,6 +34195,15 @@
       <c r="AE301" t="n">
         <v>-0.1665393685415935</v>
       </c>
+      <c r="AF301" t="n">
+        <v>78.22923861023247</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>-91.21793939918209</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>-81.00943618551868</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -31592,6 +34307,15 @@
       <c r="AE302" t="n">
         <v>0.4326664660058173</v>
       </c>
+      <c r="AF302" t="n">
+        <v>-86.62358074199459</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>-91.04935346133082</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>84.28997861952287</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -31695,6 +34419,15 @@
       <c r="AE303" t="n">
         <v>-0.1782820060215773</v>
       </c>
+      <c r="AF303" t="n">
+        <v>103.781352310069</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>-98.79606963869041</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>-66.32687431225952</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31798,6 +34531,15 @@
       <c r="AE304" t="n">
         <v>-0.2714770250306172</v>
       </c>
+      <c r="AF304" t="n">
+        <v>137.6096873636569</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>-81.33949750316145</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>-81.12313073583502</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -31901,6 +34643,15 @@
       <c r="AE305" t="n">
         <v>0.4000211356072656</v>
       </c>
+      <c r="AF305" t="n">
+        <v>-86.1580413785484</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>-90.18903428213777</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>72.71653357796902</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -32004,6 +34755,15 @@
       <c r="AE306" t="n">
         <v>-0.2477995596991041</v>
       </c>
+      <c r="AF306" t="n">
+        <v>139.2740914737327</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>-96.84613113112037</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>-73.17401853294172</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -32107,6 +34867,15 @@
       <c r="AE307" t="n">
         <v>-0.04217166051828877</v>
       </c>
+      <c r="AF307" t="n">
+        <v>-57.2937856451739</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>518.7630717215746</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>-99.30770805716506</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -32210,6 +34979,15 @@
       <c r="AE308" t="n">
         <v>-0.2082648887106665</v>
       </c>
+      <c r="AF308" t="n">
+        <v>252.7892376493313</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>-82.34812235472661</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>-61.68967397738193</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -32313,6 +35091,15 @@
       <c r="AE309" t="n">
         <v>0.4266635279366043</v>
       </c>
+      <c r="AF309" t="n">
+        <v>-71.68769045958591</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>-87.85149867482993</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>91.39055747841226</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -32416,6 +35203,15 @@
       <c r="AE310" t="n">
         <v>-0.2323772373292185</v>
       </c>
+      <c r="AF310" t="n">
+        <v>121.2286921395135</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>-97.07354958081726</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>-78.68554168550784</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -32519,6 +35315,15 @@
       <c r="AE311" t="n">
         <v>0.4062652498296265</v>
       </c>
+      <c r="AF311" t="n">
+        <v>-66.35519032265485</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>-82.52072042842727</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>89.62576391854526</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -32622,6 +35427,15 @@
       <c r="AE312" t="n">
         <v>-0.141982228144009</v>
       </c>
+      <c r="AF312" t="n">
+        <v>-42.24035152453112</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>172.5961510502916</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>-90.28432554952695</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -32725,6 +35539,15 @@
       <c r="AE313" t="n">
         <v>-0.2583719576313009</v>
       </c>
+      <c r="AF313" t="n">
+        <v>124.1729009546384</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>-91.59043472474471</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>-87.22493185682066</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -32828,6 +35651,15 @@
       <c r="AE314" t="n">
         <v>0.4358799244216159</v>
       </c>
+      <c r="AF314" t="n">
+        <v>-88.86982142261026</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>-94.43152833227205</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>82.83513953436933</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -32931,6 +35763,15 @@
       <c r="AE315" t="n">
         <v>-0.2333382263288102</v>
       </c>
+      <c r="AF315" t="n">
+        <v>108.2709405693247</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>-92.03279299016577</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>-88.78873501535116</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -33034,6 +35875,15 @@
       <c r="AE316" t="n">
         <v>0.4802709300015895</v>
       </c>
+      <c r="AF316" t="n">
+        <v>-73.15760732974125</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>-98.79252466116385</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>108.479245248547</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -33137,6 +35987,15 @@
       <c r="AE317" t="n">
         <v>0.4245865942967533</v>
       </c>
+      <c r="AF317" t="n">
+        <v>-72.78836661030883</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>-96.65351130080538</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>83.69755037769382</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -33240,6 +36099,15 @@
       <c r="AE318" t="n">
         <v>-0.2122840285872891</v>
       </c>
+      <c r="AF318" t="n">
+        <v>99.6841678946781</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>-96.2873446362989</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>-88.22805234389874</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -33343,6 +36211,15 @@
       <c r="AE319" t="n">
         <v>-0.2007358917029527</v>
       </c>
+      <c r="AF319" t="n">
+        <v>89.36624033589543</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>-93.14857939455509</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>-95.14339720704535</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -33446,6 +36323,15 @@
       <c r="AE320" t="n">
         <v>0.4264358784765609</v>
       </c>
+      <c r="AF320" t="n">
+        <v>-77.86191584655872</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>-99.902089434754</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>80.34720240417842</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -33549,6 +36435,15 @@
       <c r="AE321" t="n">
         <v>-0.1806483839399826</v>
       </c>
+      <c r="AF321" t="n">
+        <v>77.60272286831919</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>-91.41691849897551</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>-94.93917004912865</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -33652,6 +36547,15 @@
       <c r="AE322" t="n">
         <v>-0.1782551955510957</v>
       </c>
+      <c r="AF322" t="n">
+        <v>138.1253729926726</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>-99.52798783542718</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>-44.67404900234147</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -33755,6 +36659,15 @@
       <c r="AE323" t="n">
         <v>-0.2205609114223223</v>
       </c>
+      <c r="AF323" t="n">
+        <v>122.3216739170163</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>-98.17702098882248</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>-70.85501372894846</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -33858,6 +36771,15 @@
       <c r="AE324" t="n">
         <v>0.4101060908690256</v>
       </c>
+      <c r="AF324" t="n">
+        <v>-68.34190976941959</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>-99.08655771406285</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>78.374064509197</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -33961,6 +36883,15 @@
       <c r="AE325" t="n">
         <v>-0.233252344277982</v>
       </c>
+      <c r="AF325" t="n">
+        <v>152.5976686889699</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>-92.79398134419819</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>-61.00343296407409</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -34064,6 +36995,15 @@
       <c r="AE326" t="n">
         <v>-0.1929829897244867</v>
       </c>
+      <c r="AF326" t="n">
+        <v>109.0800461928437</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>-90.87981624894752</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>-65.76003172796619</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -34167,6 +37107,15 @@
       <c r="AE327" t="n">
         <v>-0.2688447538385089</v>
       </c>
+      <c r="AF327" t="n">
+        <v>122.5613269506627</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>-51.00802171287118</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>-73.38737212884176</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -34270,6 +37219,15 @@
       <c r="AE328" t="n">
         <v>-0.2066419757230301</v>
       </c>
+      <c r="AF328" t="n">
+        <v>110.5567541467499</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>-97.49363761039712</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>-72.1869011883259</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -34373,6 +37331,15 @@
       <c r="AE329" t="n">
         <v>-0.1412880969791959</v>
       </c>
+      <c r="AF329" t="n">
+        <v>-47.41994716206535</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>190.3448034141821</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>-96.10170431537482</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -34476,6 +37443,15 @@
       <c r="AE330" t="n">
         <v>0.6367898364858771</v>
       </c>
+      <c r="AF330" t="n">
+        <v>-88.82385579304562</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>-90.46783948243696</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>220.8345010100678</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -34579,6 +37555,15 @@
       <c r="AE331" t="n">
         <v>-0.1841544323993851</v>
       </c>
+      <c r="AF331" t="n">
+        <v>86.8641470264008</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>-81.5795887025822</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>-70.2304793000453</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -34682,6 +37667,15 @@
       <c r="AE332" t="n">
         <v>-0.1431455220131798</v>
       </c>
+      <c r="AF332" t="n">
+        <v>77.26945386812403</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>-92.83414394854258</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>-70.43184014473077</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -34785,6 +37779,15 @@
       <c r="AE333" t="n">
         <v>-0.1838452325854895</v>
       </c>
+      <c r="AF333" t="n">
+        <v>79.42224820021237</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>-87.49277241960546</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>-89.36179154295684</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -34888,6 +37891,15 @@
       <c r="AE334" t="n">
         <v>-0.2371966209506622</v>
       </c>
+      <c r="AF334" t="n">
+        <v>115.4904511006582</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>-84.07564747814881</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>-80.84269502838912</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -34991,6 +38003,15 @@
       <c r="AE335" t="n">
         <v>-0.1595509661159989</v>
       </c>
+      <c r="AF335" t="n">
+        <v>69.88504940091552</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>-93.5933098367089</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>-98.07893845509598</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -35094,6 +38115,15 @@
       <c r="AE336" t="n">
         <v>-0.1943484648101039</v>
       </c>
+      <c r="AF336" t="n">
+        <v>89.65667254050945</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>-99.33336576460935</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>-94.18740336691774</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -35197,6 +38227,15 @@
       <c r="AE337" t="n">
         <v>-0.1863569656912458</v>
       </c>
+      <c r="AF337" t="n">
+        <v>84.67267519478861</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>-86.77808947863404</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>-86.03272651291473</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -35299,6 +38338,15 @@
       </c>
       <c r="AE338" t="n">
         <v>-0.1822359413046406</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>99.16222620370414</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>-93.18326804482987</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>-68.2381233724803</v>
       </c>
     </row>
   </sheetData>
